--- a/geometryfolder/circles/tables/initialtable.xlsx
+++ b/geometryfolder/circles/tables/initialtable.xlsx
@@ -47,7 +47,7 @@
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
       <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.06pt solid #000000"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
       <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
@@ -111,16 +111,16 @@
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
             <text:p>Initial Input Values</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:style-name="ce2"/>
+          <table:covered-table-cell table:style-name="ce4"/>
           <table:table-cell table:style-name="ce6"/>
           <table:table-cell table:style-name="ce15"/>
           <table:table-cell table:number-columns-repeated="60"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Parameters</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Values</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce7"/>
@@ -129,10 +129,10 @@
           <table:table-cell table:number-columns-repeated="59"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>r</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="2" calcext:value-type="float">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce8"/>
@@ -141,11 +141,11 @@
           <table:table-cell table:number-columns-repeated="59"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>theta</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="90" calcext:value-type="float">
-            <text:p>90</text:p>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>theta1</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="-120" calcext:value-type="float">
+            <text:p>-120</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9"/>
           <table:table-cell table:style-name="ce16"/>
@@ -153,11 +153,11 @@
           <table:table-cell table:number-columns-repeated="59"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>theta1</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="-120" calcext:value-type="float">
-            <text:p>-120</text:p>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>theta2</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="-30" calcext:value-type="float">
+            <text:p>-30</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce8"/>
           <table:table-cell table:style-name="ce16"/>
@@ -165,10 +165,10 @@
           <table:table-cell table:number-columns-repeated="59"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>theta2</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="210" calcext:value-type="float">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>theta3</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="210" calcext:value-type="float">
             <text:p>210</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce8"/>
@@ -176,7 +176,16 @@
           <table:table-cell table:style-name="ce14"/>
           <table:table-cell table:number-columns-repeated="59"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048569">
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>theta4</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="300" calcext:value-type="float">
+            <text:p>300</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="62"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048568">
           <table:table-cell table:number-columns-repeated="64"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -193,11 +202,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2020-05-28T19:31:17.609729718</meta:creation-date>
-    <dc:date>2020-05-29T20:33:47.848307427</dc:date>
-    <meta:editing-duration>PT47M39S</meta:editing-duration>
-    <meta:editing-cycles>9</meta:editing-cycles>
+    <dc:date>2020-06-01T18:29:58.700331837</dc:date>
+    <meta:editing-duration>PT49M15S</meta:editing-duration>
+    <meta:editing-cycles>10</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.3.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="11" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="13" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -209,14 +218,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">4136</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">2783</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">3234</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">6</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -271,7 +280,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpEdXBsZXg6Tm9uZQBQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpBNABEdXBsZXg6Tm9uZQAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -424,9 +433,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2020-05-29">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2020-06-01">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="20:33:20.243281230">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="18:28:22.527299310">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
